--- a/Data Files/Email Table.xlsx
+++ b/Data Files/Email Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Miller\Desktop\Automate Everything With Python\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Miller\Desktop\Automate Everything With Python 08-30-2024\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE6CCC3-A864-47AE-B026-F310D01A5D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C27C7-92C9-422D-8332-E10310428CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13935" yWindow="3180" windowWidth="19140" windowHeight="11685" xr2:uid="{67302930-FF92-463F-B2CF-D0299E242941}"/>
+    <workbookView xWindow="2010" yWindow="1575" windowWidth="28800" windowHeight="11295" xr2:uid="{67302930-FF92-463F-B2CF-D0299E242941}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Kevin</t>
   </si>
   <si>
-    <t>jfmiller149@icloud.com</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>6541</t>
+  </si>
+  <si>
+    <t>EnterYourEmailAddress@Here.com</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31929E24-58CC-47BF-A6C6-1D1ED5E8561B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -475,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -486,10 +488,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -500,10 +502,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -519,7 +521,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{1A416930-1ED5-4035-AD52-6B16FED7A37E}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{4420930E-728B-44D5-84F4-7E02CA6C4595}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{DB0E12FC-DD4B-4C00-872D-23F8D24F076D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
